--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2743.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2743.xlsx
@@ -354,7 +354,7 @@
         <v>2.409916760318512</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.36863037917511</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2743.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2743.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158547624546</v>
+        <v>1.921780705451965</v>
       </c>
       <c r="B1">
-        <v>2.409916760318512</v>
+        <v>2.798107862472534</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.078586578369141</v>
       </c>
       <c r="D1">
-        <v>2.36863037917511</v>
+        <v>2.636105298995972</v>
       </c>
       <c r="E1">
-        <v>1.221247430023709</v>
+        <v>1.022797584533691</v>
       </c>
     </row>
   </sheetData>
